--- a/Data/Model/AlphaVariationRekap.xlsx
+++ b/Data/Model/AlphaVariationRekap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb807af666a6dc23/TA/code/Data/Plant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb807af666a6dc23/TA/code/Data/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{730CB6E0-7659-4059-B04B-C8EA5137DD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F0AD8B2-EA1E-4567-B078-FF041CDDD2FB}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{730CB6E0-7659-4059-B04B-C8EA5137DD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB4281A5-866D-4900-A707-F0AA8FBEC376}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t xml:space="preserve">      </t>
   </si>
@@ -86,9 +86,6 @@
     <t>[91</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'relu'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'adam'</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>MSE</t>
   </si>
 </sst>
 </file>
@@ -588,12 +591,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,7 +774,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$E$5:$E$11</c:f>
+              <c:f>AlphaVariation!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -922,7 +929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$I$5:$I$11</c:f>
+              <c:f>AlphaVariation!$J$5:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1351,7 +1358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$M$5:$M$11</c:f>
+              <c:f>AlphaVariation!$P$5:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1506,7 +1513,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$R$5:$R$11</c:f>
+              <c:f>AlphaVariation!$V$5:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1935,7 +1942,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$X$5:$X$11</c:f>
+              <c:f>AlphaVariation!$AD$5:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2090,7 +2097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AlphaVariation!$AC$5:$AC$11</c:f>
+              <c:f>AlphaVariation!$AJ$5:$AJ$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4082,7 +4089,7 @@
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
@@ -4112,13 +4119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -4150,13 +4157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4486,127 +4493,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AF13"/>
+  <dimension ref="A2:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" customWidth="1"/>
+    <col min="31" max="31" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>2</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>6</v>
-      </c>
-      <c r="U2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
       </c>
       <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AH2" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AL2" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AM2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
         <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>8</v>
       </c>
       <c r="R3" t="s">
         <v>6</v>
@@ -4615,13 +4649,13 @@
         <v>3</v>
       </c>
       <c r="T3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>3</v>
-      </c>
-      <c r="W3" t="s">
-        <v>9</v>
       </c>
       <c r="X3" t="s">
         <v>6</v>
@@ -4629,29 +4663,38 @@
       <c r="Y3" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AJ3" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AK3" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AL3" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AM3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -4662,85 +4705,106 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Q4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="W4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="X4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Y4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="AA4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AE4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AF4" t="s">
         <v>14</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AG4" t="s">
         <v>15</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AH4" t="s">
         <v>11</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AI4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AK4" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AL4" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AM4" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4751,88 +4815,110 @@
         <v>0.57840000000000003</v>
       </c>
       <c r="D5" s="2">
-        <v>0.57790403999999995</v>
-      </c>
-      <c r="E5">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <f>F5^2</f>
+        <v>38.812900000000006</v>
+      </c>
+      <c r="F5">
         <v>6.23</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.96</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.59140000000000004</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.59089969000000009</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.21</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.98</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.84899999999999998</v>
       </c>
-      <c r="M5">
-        <v>0.96</v>
-      </c>
-      <c r="N5">
-        <v>0.68</v>
-      </c>
-      <c r="O5">
-        <v>0.06</v>
+      <c r="N5" s="2"/>
+      <c r="O5" s="5">
+        <f>P5^2</f>
+        <v>0.92159999999999997</v>
       </c>
       <c r="P5">
         <v>0.96</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
+        <v>0.68</v>
+      </c>
+      <c r="R5">
+        <v>0.06</v>
+      </c>
+      <c r="S5">
+        <v>0.96</v>
+      </c>
+      <c r="T5" s="2">
         <v>0.8589</v>
       </c>
-      <c r="R5">
+      <c r="U5" s="7">
+        <f>V5^2</f>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="V5">
         <v>0.96</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>0.67</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>0.02</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>0.96</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AA5" s="2">
         <v>0.30780000000000002</v>
       </c>
-      <c r="X5">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="5">
+        <f>AD5^2</f>
+        <v>76.7376</v>
+      </c>
+      <c r="AD5">
         <v>8.76</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>7.23</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>-0.22</v>
       </c>
-      <c r="AA5">
+      <c r="AG5">
         <v>8.76</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AH5" s="2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="AC5">
+      <c r="AI5" s="5">
+        <f>AJ5^2</f>
+        <v>76.212900000000005</v>
+      </c>
+      <c r="AJ5">
         <v>8.73</v>
       </c>
-      <c r="AD5">
+      <c r="AK5">
         <v>7.29</v>
       </c>
-      <c r="AE5">
+      <c r="AL5">
         <v>-0.35</v>
       </c>
-      <c r="AF5">
+      <c r="AM5">
         <v>8.73</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4843,88 +4929,110 @@
         <v>0.57250000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>0.57062915999999997</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" ref="E6:E11" si="0">F6^2</f>
+        <v>38.192399999999999</v>
+      </c>
+      <c r="F6" s="3">
         <v>6.18</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>3.96</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.58216900000000005</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>6.14</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>3.98</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>0.82340000000000002</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="6">
+        <f t="shared" ref="O6:O11" si="1">P6^2</f>
+        <v>1.1025</v>
+      </c>
+      <c r="P6" s="3">
         <v>1.05</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="3">
         <v>0.74</v>
       </c>
-      <c r="O6" s="3">
+      <c r="R6" s="3">
         <v>-0.13</v>
       </c>
-      <c r="P6" s="3">
+      <c r="S6" s="3">
         <v>1.04</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="T6" s="4">
         <v>0.83</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="8">
+        <f t="shared" ref="U6:U11" si="2">V6^2</f>
+        <v>1.1449</v>
+      </c>
+      <c r="V6" s="3">
         <v>1.07</v>
       </c>
-      <c r="S6" s="3">
+      <c r="W6" s="3">
         <v>0.75</v>
       </c>
-      <c r="T6" s="3">
+      <c r="X6" s="3">
         <v>-0.19</v>
       </c>
-      <c r="U6" s="3">
+      <c r="Y6" s="3">
         <v>1.05</v>
       </c>
-      <c r="W6" s="4">
+      <c r="AA6" s="4">
         <v>0.32150000000000001</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="6">
+        <f t="shared" ref="AC6:AC11" si="3">AD6^2</f>
+        <v>75.342399999999998</v>
+      </c>
+      <c r="AD6" s="3">
         <v>8.68</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AE6" s="3">
         <v>7.18</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AF6" s="3">
         <v>0.31</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AG6" s="3">
         <v>8.67</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AH6" s="4">
         <v>0.34</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AI6" s="6">
+        <f t="shared" ref="AI6:AI11" si="4">AJ6^2</f>
+        <v>74.304399999999987</v>
+      </c>
+      <c r="AJ6" s="3">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AK6" s="3">
         <v>7.2</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AL6" s="3">
         <v>0.19</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AM6" s="3">
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4935,88 +5043,110 @@
         <v>0.56850000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>0.56505289000000003</v>
-      </c>
-      <c r="E7">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>39.942400000000006</v>
+      </c>
+      <c r="F7">
         <v>6.32</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.09</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.58179999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.57836024999999991</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6.28</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>0.84240000000000004</v>
       </c>
-      <c r="M7">
+      <c r="N7" s="2"/>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="P7">
         <v>0.99</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>0.71</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>0.98</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>0.85150000000000003</v>
       </c>
-      <c r="R7">
+      <c r="U7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="V7">
         <v>0.99</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>0.7</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>-0.13</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>0.98</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>0.29449999999999998</v>
       </c>
-      <c r="X7">
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="5">
+        <f t="shared" si="3"/>
+        <v>78.854400000000012</v>
+      </c>
+      <c r="AD7">
         <v>8.8800000000000008</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>7.47</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>0.81</v>
       </c>
-      <c r="AA7">
+      <c r="AG7">
         <v>8.85</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AH7" s="2">
         <v>0.31209999999999999</v>
       </c>
-      <c r="AC7">
+      <c r="AI7" s="5">
+        <f t="shared" si="4"/>
+        <v>77.968900000000005</v>
+      </c>
+      <c r="AJ7">
         <v>8.83</v>
       </c>
-      <c r="AD7">
+      <c r="AK7">
         <v>7.5</v>
       </c>
-      <c r="AE7">
+      <c r="AL7">
         <v>0.69</v>
       </c>
-      <c r="AF7">
+      <c r="AM7">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5027,88 +5157,110 @@
         <v>0.56640000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>0.55771024000000002</v>
-      </c>
-      <c r="E8">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>40.576900000000002</v>
+      </c>
+      <c r="F8">
         <v>6.37</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.57850000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.57244356000000007</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6.34</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>0.84289999999999998</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="2"/>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0.7</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>0.17</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>0.98</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>0.85260000000000002</v>
       </c>
-      <c r="R8">
+      <c r="U8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="V8">
         <v>0.99</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>0.69</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>0.13</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>0.98</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AA8" s="2">
         <v>0.2898</v>
       </c>
-      <c r="X8">
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="5">
+        <f t="shared" si="3"/>
+        <v>80.102499999999992</v>
+      </c>
+      <c r="AD8">
         <v>8.9499999999999993</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>7.58</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>1.18</v>
       </c>
-      <c r="AA8">
+      <c r="AG8">
         <v>8.8699999999999992</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AH8" s="2">
         <v>0.3044</v>
       </c>
-      <c r="AC8">
+      <c r="AI8" s="5">
+        <f t="shared" si="4"/>
+        <v>79.388100000000009</v>
+      </c>
+      <c r="AJ8">
         <v>8.91</v>
       </c>
-      <c r="AD8">
+      <c r="AK8">
         <v>7.61</v>
       </c>
-      <c r="AE8">
+      <c r="AL8">
         <v>1.04</v>
       </c>
-      <c r="AF8">
+      <c r="AM8">
         <v>8.85</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5119,88 +5271,110 @@
         <v>0.57420000000000004</v>
       </c>
       <c r="D9" s="2">
-        <v>0.57380624999999996</v>
-      </c>
-      <c r="E9">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>38.937600000000003</v>
+      </c>
+      <c r="F9">
         <v>6.24</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.95</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.58760000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0.58736895999999994</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6.21</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.96</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>0.84089999999999998</v>
       </c>
-      <c r="M9">
-        <v>0.99</v>
-      </c>
-      <c r="N9">
-        <v>0.71</v>
-      </c>
-      <c r="O9">
-        <v>7.0000000000000007E-2</v>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98009999999999997</v>
       </c>
       <c r="P9">
         <v>0.99</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
+        <v>0.71</v>
+      </c>
+      <c r="R9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S9">
+        <v>0.99</v>
+      </c>
+      <c r="T9" s="2">
         <v>0.85029999999999994</v>
       </c>
-      <c r="R9">
+      <c r="U9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="V9">
         <v>0.99</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>0.71</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>0.01</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>0.99</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <v>0.3075</v>
       </c>
-      <c r="X9">
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="5">
+        <f t="shared" si="3"/>
+        <v>76.7376</v>
+      </c>
+      <c r="AD9">
         <v>8.76</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>7.18</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>-0.09</v>
       </c>
-      <c r="AA9">
+      <c r="AG9">
         <v>8.76</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AH9" s="2">
         <v>0.32490000000000002</v>
       </c>
-      <c r="AC9">
+      <c r="AI9" s="5">
+        <f t="shared" si="4"/>
+        <v>76.03840000000001</v>
+      </c>
+      <c r="AJ9">
         <v>8.7200000000000006</v>
       </c>
-      <c r="AD9">
+      <c r="AK9">
         <v>7.21</v>
       </c>
-      <c r="AE9">
+      <c r="AL9">
         <v>-0.18</v>
       </c>
-      <c r="AF9">
+      <c r="AM9">
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5211,88 +5385,110 @@
         <v>0.56269999999999998</v>
       </c>
       <c r="D10" s="2">
-        <v>0.55368481000000003</v>
-      </c>
-      <c r="E10">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>40.7044</v>
+      </c>
+      <c r="F10">
         <v>6.38</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.57379999999999998</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>0.56746089</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6.36</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>4.18</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>0.8387</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="2"/>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0201</v>
+      </c>
+      <c r="P10">
         <v>1.01</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>0.73</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>0.19</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>0.99</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>0.84830000000000005</v>
       </c>
-      <c r="R10">
+      <c r="U10" s="7">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>0.72</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>0.15</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>0.99</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>0.28670000000000001</v>
       </c>
-      <c r="X10">
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="5">
+        <f t="shared" si="3"/>
+        <v>80.460900000000009</v>
+      </c>
+      <c r="AD10">
         <v>8.9700000000000006</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>7.61</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AG10">
         <v>8.89</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AH10" s="2">
         <v>0.2994</v>
       </c>
-      <c r="AC10">
+      <c r="AI10" s="5">
+        <f t="shared" si="4"/>
+        <v>79.923599999999993</v>
+      </c>
+      <c r="AJ10">
         <v>8.94</v>
       </c>
-      <c r="AD10">
+      <c r="AK10">
         <v>7.65</v>
       </c>
-      <c r="AE10">
+      <c r="AL10">
         <v>1.03</v>
       </c>
-      <c r="AF10">
+      <c r="AM10">
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5303,115 +5499,135 @@
         <v>0.55889999999999995</v>
       </c>
       <c r="D11" s="2">
-        <v>0.5527922500000001</v>
-      </c>
-      <c r="E11">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>40.449600000000004</v>
+      </c>
+      <c r="F11">
         <v>6.36</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.56599999999999995</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0.56175025000000012</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6.35</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4.17</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>0.82609999999999995</v>
       </c>
-      <c r="M11">
+      <c r="N11" s="2"/>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="P11">
         <v>1.04</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>0.71</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>0.1</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>1.03</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>0.8296</v>
       </c>
-      <c r="R11">
+      <c r="U11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1025</v>
+      </c>
+      <c r="V11">
         <v>1.05</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>0.72</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>0.05</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>1.05</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <v>0.29170000000000001</v>
       </c>
-      <c r="X11">
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="5">
+        <f t="shared" si="3"/>
+        <v>79.744900000000001</v>
+      </c>
+      <c r="AD11">
         <v>8.93</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>7.56</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>1.08</v>
       </c>
-      <c r="AA11">
+      <c r="AG11">
         <v>8.86</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AH11" s="2">
         <v>0.3024</v>
       </c>
-      <c r="AC11">
+      <c r="AI11" s="5">
+        <f t="shared" si="4"/>
+        <v>79.388100000000009</v>
+      </c>
+      <c r="AJ11">
         <v>8.91</v>
       </c>
-      <c r="AD11">
+      <c r="AK11">
         <v>7.61</v>
       </c>
-      <c r="AE11">
+      <c r="AL11">
         <v>0.95</v>
       </c>
-      <c r="AF11">
+      <c r="AM11">
         <v>8.86</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="F13">
-        <v>5000</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>